--- a/recursos/Almacenes_EJEMPLO.xlsx
+++ b/recursos/Almacenes_EJEMPLO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\henry.perez\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\GITLAB\proyecto-almacenes\almacenes-backend\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785BEB06-B5FA-4EF4-AC4C-955DEADE292D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73422F52-2EE4-4C32-B231-B1ED0C99EEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4153D1C6-3ECC-4A3E-85CA-BBDBD4A93EA1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4153D1C6-3ECC-4A3E-85CA-BBDBD4A93EA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Producto</t>
   </si>
@@ -61,13 +61,25 @@
   </si>
   <si>
     <t>Salida</t>
+  </si>
+  <si>
+    <t>Saldo Fisico</t>
+  </si>
+  <si>
+    <t>Saldo Valorado</t>
+  </si>
+  <si>
+    <t>Ponderado</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,8 +96,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +127,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -138,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -146,7 +178,12 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2132A624-81D8-4136-9257-36ED6F001019}">
-  <dimension ref="B6:K32"/>
+  <dimension ref="B6:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,9 +511,15 @@
     <col min="9" max="9" width="19.140625" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
     <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
@@ -504,8 +547,20 @@
       <c r="K6" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
@@ -529,8 +584,21 @@
       <c r="K7" s="3">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="8">
+        <v>100</v>
+      </c>
+      <c r="M7" s="8">
+        <f>K7*L7</f>
+        <v>350</v>
+      </c>
+      <c r="N7" s="8">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
@@ -556,8 +624,23 @@
         <f>((F7*H7)+(F8*H8))/J8</f>
         <v>3.6124999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="8">
+        <f>L7+F8</f>
+        <v>160</v>
+      </c>
+      <c r="M8" s="8">
+        <f>K8*L8</f>
+        <v>578</v>
+      </c>
+      <c r="N8" s="8">
+        <f>(M7+(F8*H8))/(L7+F8)</f>
+        <v>3.6124999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
@@ -583,8 +666,23 @@
         <f>((F7*H7)+(F8*H8)+(F9*H9))/J9</f>
         <v>3.5619047619047617</v>
       </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="8">
+        <f>L8+F9</f>
+        <v>210</v>
+      </c>
+      <c r="M9" s="8">
+        <f>K9*L9</f>
+        <v>748</v>
+      </c>
+      <c r="N9" s="8">
+        <f>(M8+(F9*H9))/(L8+F9)</f>
+        <v>3.5619047619047617</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <v>4</v>
+      </c>
       <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
@@ -609,8 +707,23 @@
       <c r="K10" s="5">
         <v>3.5619047619047617</v>
       </c>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="8">
+        <f>L9-G10</f>
+        <v>180</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" ref="M10:M14" si="0">K10*L10</f>
+        <v>641.14285714285711</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" ref="N10:N13" si="1">(M9+(F10*H10))/(L9+F10)</f>
+        <v>3.5619047619047617</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>5</v>
+      </c>
       <c r="C11" s="5" t="s">
         <v>11</v>
       </c>
@@ -635,8 +748,23 @@
       <c r="K11" s="5">
         <v>3.5619047619047617</v>
       </c>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="8">
+        <f>L10-G11</f>
+        <v>80</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="0"/>
+        <v>284.95238095238096</v>
+      </c>
+      <c r="N11" s="8">
+        <f t="shared" si="1"/>
+        <v>3.5619047619047617</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>6</v>
+      </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
@@ -662,8 +790,23 @@
         <f xml:space="preserve"> ( ((F7*H7)+(F8*H8)+(F9*H9)+(F12*H12)) - ((G10*I10)+(G11*I11)) ) /J12</f>
         <v>3.7104010025062655</v>
       </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="8">
+        <f>L11+F12</f>
+        <v>380</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" si="0"/>
+        <v>1409.952380952381</v>
+      </c>
+      <c r="N12" s="8">
+        <f t="shared" si="1"/>
+        <v>3.7104010025062655</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>7</v>
+      </c>
       <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
@@ -689,8 +832,23 @@
         <f>(((F7*H7)+(F8*H8)+(F9*H9)+(F12*H12)+(F13*H13)) - ((G10*I10)+(G11*I11)) ) /J13</f>
         <v>3.6743078626799557</v>
       </c>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="8">
+        <f>L12+F13</f>
+        <v>430</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="0"/>
+        <v>1579.952380952381</v>
+      </c>
+      <c r="N13" s="8">
+        <f t="shared" si="1"/>
+        <v>3.6743078626799557</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
+        <v>8</v>
+      </c>
       <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
@@ -715,8 +873,20 @@
       <c r="K14" s="5">
         <v>3.6743078626799557</v>
       </c>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="8">
+        <f>L13-G14</f>
+        <v>200</v>
+      </c>
+      <c r="M14" s="8">
+        <f t="shared" si="0"/>
+        <v>734.86157253599117</v>
+      </c>
+      <c r="N14" s="8">
+        <f>(M13+(F14*H14))/(L13+F14)</f>
+        <v>3.6743078626799557</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -727,7 +897,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -738,7 +908,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -749,185 +919,11 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E20" s="10"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O29" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
